--- a/Data/EC/NIT-9006233519.xlsx
+++ b/Data/EC/NIT-9006233519.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47BEA966-0762-4629-B67D-7D47C39905A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{192F52CF-D40D-4E0F-A088-8BD7FEC591EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A73FBAFF-A3B9-4DBA-AAFB-9334D1EE0FB9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9BEC5884-5945-4B8F-8C17-E34E29CC3E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,13 +65,13 @@
     <t>CC</t>
   </si>
   <si>
-    <t>73160939</t>
-  </si>
-  <si>
-    <t>YURNIS ENRIQUE CABARCAS GONZALEZ</t>
-  </si>
-  <si>
-    <t>2004</t>
+    <t>20309671</t>
+  </si>
+  <si>
+    <t>MILTON LEONARDO OCHOA MOLINA</t>
+  </si>
+  <si>
+    <t>2106</t>
   </si>
   <si>
     <t>3805300</t>
@@ -80,85 +80,34 @@
     <t>EDUARDO ALONSO COLINA POMARES</t>
   </si>
   <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>45750543</t>
+  </si>
+  <si>
+    <t>DIANA CAROLINA MORENO FORERO</t>
+  </si>
+  <si>
+    <t>73576381</t>
+  </si>
+  <si>
+    <t>CESAR CORTES FERNANDEZ</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>73114012</t>
+  </si>
+  <si>
+    <t>ROBERTO AYOLA CANTERO</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
     <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>73114012</t>
-  </si>
-  <si>
-    <t>ROBERTO AYOLA CANTERO</t>
-  </si>
-  <si>
-    <t>73136751</t>
-  </si>
-  <si>
-    <t>AMAURY CABARCAS PEREIRA</t>
-  </si>
-  <si>
-    <t>73148377</t>
-  </si>
-  <si>
-    <t>LUIS LAMBIS TORRES</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>73211095</t>
-  </si>
-  <si>
-    <t>MANUEL BURGOS GOMEZ</t>
-  </si>
-  <si>
-    <t>73136026</t>
-  </si>
-  <si>
-    <t>JAIRO ESCUDERO ROJAS</t>
-  </si>
-  <si>
-    <t>45750543</t>
-  </si>
-  <si>
-    <t>DIANA CAROLINA MORENO FORERO</t>
-  </si>
-  <si>
-    <t>73576381</t>
-  </si>
-  <si>
-    <t>CESAR CORTES FERNANDEZ</t>
-  </si>
-  <si>
-    <t>1007381083</t>
-  </si>
-  <si>
-    <t>CRISTIAN DAVID PITALUA BARRIOS</t>
-  </si>
-  <si>
-    <t>20309671</t>
-  </si>
-  <si>
-    <t>MILTON LEONARDO OCHOA MOLINA</t>
-  </si>
-  <si>
-    <t>2106</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -257,7 +206,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -270,9 +221,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -472,23 +421,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -516,10 +465,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -572,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85686F77-78B5-D3F4-A335-A54E8DC7B1C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8627E55B-13F0-F9DF-B421-D18D7E3CB1ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -923,8 +872,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2616CF40-3DFD-44E3-A571-018D4E7330D4}">
-  <dimension ref="B2:J56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9043FF-CE0E-4F28-92CD-18787BA44CEC}">
+  <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -935,7 +884,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -948,7 +897,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -993,7 +942,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1025,12 +974,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2577606</v>
+        <v>1627861</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1041,17 +990,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F13" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1078,13 +1027,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1101,10 +1050,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>30430</v>
+        <v>36341</v>
       </c>
       <c r="G16" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1138,19 +1087,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>56940</v>
+        <v>120000</v>
       </c>
       <c r="G18" s="18">
-        <v>1423500</v>
+        <v>4000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1161,19 +1110,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>56940</v>
+        <v>160000</v>
       </c>
       <c r="G19" s="18">
-        <v>1423500</v>
+        <v>4000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1190,7 +1139,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
         <v>56940</v>
@@ -1207,13 +1156,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F21" s="18">
         <v>61880</v>
@@ -1230,19 +1179,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F22" s="18">
-        <v>61880</v>
+        <v>160000</v>
       </c>
       <c r="G22" s="18">
-        <v>1547000</v>
+        <v>4000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1253,19 +1202,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
-        <v>61880</v>
+        <v>160000</v>
       </c>
       <c r="G23" s="18">
-        <v>1547000</v>
+        <v>4000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1276,19 +1225,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
-        <v>61880</v>
+        <v>56940</v>
       </c>
       <c r="G24" s="18">
-        <v>1547000</v>
+        <v>1423500</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1305,10 +1254,10 @@
         <v>21</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>28708</v>
+        <v>61880</v>
       </c>
       <c r="G25" s="18">
         <v>1547000</v>
@@ -1322,19 +1271,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F26" s="18">
-        <v>36341</v>
+        <v>160000</v>
       </c>
       <c r="G26" s="18">
-        <v>877803</v>
+        <v>4000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1345,19 +1294,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F27" s="18">
-        <v>36341</v>
+        <v>160000</v>
       </c>
       <c r="G27" s="18">
-        <v>877803</v>
+        <v>4000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1368,19 +1317,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F28" s="18">
-        <v>36341</v>
+        <v>56940</v>
       </c>
       <c r="G28" s="18">
-        <v>877803</v>
+        <v>1423500</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1391,535 +1340,75 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F29" s="18">
-        <v>36341</v>
+        <v>160000</v>
       </c>
       <c r="G29" s="18">
-        <v>877803</v>
+        <v>4000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="17" t="s">
+      <c r="C30" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G30" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G31" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G32" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="18">
-        <v>61880</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1547000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="18">
-        <v>61880</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1547000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F30" s="24">
+        <v>160000</v>
+      </c>
+      <c r="G30" s="24">
+        <v>4000000</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="18">
-        <v>61880</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1547000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="B35" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="H35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16" t="s">
+      <c r="B36" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G40" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G41" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G42" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="18">
-        <v>120000</v>
-      </c>
-      <c r="G43" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="16" t="s">
+      <c r="C36" s="32"/>
+      <c r="H36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G44" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G45" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G46" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G47" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F50" s="24">
-        <v>36341</v>
-      </c>
-      <c r="G50" s="24">
-        <v>908526</v>
-      </c>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="26"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="32"/>
-      <c r="H55" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" s="32"/>
-      <c r="H56" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H35:J35"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
